--- a/src/models/baselines/SVM/results/real-world/Kaggle/metrics.xlsx
+++ b/src/models/baselines/SVM/results/real-world/Kaggle/metrics.xlsx
@@ -462,7 +462,7 @@
         <v>0.458128078817734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6352342318906556</v>
+        <v>0.6378578241689158</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.4482758620689655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6219215740469765</v>
+        <v>0.6363147497805092</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5073891625615764</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5073891625615764</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6531331631602337</v>
+        <v>0.6420567370121071</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
         <v>0.4630541871921182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6060672942477158</v>
+        <v>0.605177814630551</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.477832512315271</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.477832512315271</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6249211459044646</v>
+        <v>0.6089522431415905</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4236453201970443</v>
+        <v>0.4729064039408867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4236453201970443</v>
+        <v>0.4729064039408867</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6069825166108456</v>
+        <v>0.6090487106948915</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4926108374384237</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4926108374384237</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6701149752327686</v>
+        <v>0.6608294312749976</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6329837739407537</v>
+        <v>0.6383225484776553</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6303521878624307</v>
+        <v>0.6229287928548977</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6248643763752045</v>
+        <v>0.6323769225766592</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4640394088669951</v>
+        <v>0.4669950738916256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4640394088669951</v>
+        <v>0.4669950738916256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.630657523927205</v>
+        <v>0.6293865774612776</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02444373604719659</v>
+        <v>0.01501363474635463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02444373604719659</v>
+        <v>0.01501363474635464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01942639820877619</v>
+        <v>0.01769086191257601</v>
       </c>
     </row>
   </sheetData>
